--- a/data/trans_camb/P23_DUKE_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P23_DUKE_R-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,21</t>
+          <t>4,44</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-4,38</t>
+          <t>-7,9</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,36</t>
+          <t>5,08</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,0</t>
+          <t>-18,5</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>-15,78</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>-13,35</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-8,08</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-12,53</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-4,98</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,38; 8,13</t>
+          <t>-17,24; 24,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,78; 4,39</t>
+          <t>-31,06; 16,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 12,78</t>
+          <t>-16,89; 27,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 15,1</t>
+          <t>-34,96; -0,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 7,99</t>
+          <t>-32,29; 0,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 6,18</t>
+          <t>-29,98; 2,28</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-21,22; 6,43</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-26,61; 2,44</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-19,26; 7,89</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-14,28%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-51,91%</t>
+          <t>-10,63%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>51,62%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>76,8%</t>
+          <t>-21,2%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>14,76%</t>
+          <t>-18,08%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>-15,3%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-9,91%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-15,38%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-6,11%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-86,84; 277,94</t>
+          <t>-19,9; 39,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,85; 26,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-63,07; 718,99</t>
+          <t>-19,35; 46,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-52,8; 744,16</t>
+          <t>-39,05; -1,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-56,92; 203,09</t>
+          <t>-35,88; 0,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-63,63; 137,69</t>
+          <t>-33,05; 2,76</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-24,97; 8,09</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-31,07; 2,82</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-21,73; 10,7</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,51</t>
+          <t>18,71</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>12,52</t>
+          <t>20,23</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-5,83</t>
+          <t>22,43</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-5,9</t>
+          <t>-3,94</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-4,2</t>
+          <t>-8,31</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,51</t>
+          <t>-6,59</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>8,25</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>7,07</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>9,26</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-25,32; 13,78</t>
+          <t>-0,26; 53,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,11; 42,7</t>
+          <t>2,11; 49,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-16,47; 3,96</t>
+          <t>5,38; 54,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-16,62; 3,85</t>
+          <t>-14,43; 5,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-16,87; 6,69</t>
+          <t>-20,58; 0,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,34; 20,14</t>
+          <t>-20,35; 3,5</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-3,24; 28,01</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-3,54; 28,76</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-1,39; 28,56</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-21,21%</t>
+          <t>26,02%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>105,61%</t>
+          <t>28,12%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-40,71%</t>
+          <t>31,18%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-41,17%</t>
+          <t>-4,11%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-32,02%</t>
+          <t>-8,65%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>26,72%</t>
+          <t>-6,86%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>9,93%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>8,51%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>11,15%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,9; 113,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-89,64; 2034,24</t>
+          <t>1,88; 104,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-79,73; 57,29</t>
+          <t>5,63; 130,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-77,78; 53,98</t>
+          <t>-15,51; 5,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-81,26; 101,67</t>
+          <t>-20,96; 0,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-68,59; 226,0</t>
+          <t>-20,56; 3,71</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-3,55; 43,57</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-4,01; 44,66</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-1,5; 42,91</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-5,83</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-7,61</t>
+          <t>6,49</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-4,09</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,0</t>
+          <t>5,98</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-5,05</t>
+          <t>3,92</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>-0,78</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3,46</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4,95</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-0,88</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-26,5; 11,17</t>
+          <t>-13,12; 12,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-27,36; 7,23</t>
+          <t>-3,4; 20,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,4; 3,36</t>
+          <t>-13,5; 13,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 13,58</t>
+          <t>-1,97; 14,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-16,3; 4,89</t>
+          <t>-4,04; 12,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,34; 7,37</t>
+          <t>-9,46; 8,3</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-3,65; 10,41</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-1,49; 11,56</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-9,34; 6,68</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-19,95%</t>
+          <t>-0,82%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-26,04%</t>
+          <t>7,34%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-26,13%</t>
+          <t>-1,2%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>31,9%</t>
+          <t>6,8%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-23,05%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-3,84%</t>
+          <t>-0,89%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>3,92%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>5,61%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-1,0%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-62,61; 63,36</t>
+          <t>-14,28; 15,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-65,52; 39,68</t>
+          <t>-3,51; 26,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-58,89; 31,02</t>
+          <t>-14,33; 16,6</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-24,79; 113,28</t>
+          <t>-2,1; 17,49</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-55,6; 33,0</t>
+          <t>-4,34; 15,05</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-41,98; 46,77</t>
+          <t>-10,45; 10,07</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-3,94; 12,45</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-1,6; 14,01</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-10,21; 7,96</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>6,9</t>
+          <t>-2,62</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,22</t>
+          <t>-6,89</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,0</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,45</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,76</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,13</t>
+          <t>-3,76</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-0,16</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-2,53</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-1,33</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 16,5</t>
+          <t>-13,75; 6,89</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 14,34</t>
+          <t>-18,47; 4,73</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 14,91</t>
+          <t>-7,85; 10,39</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 15,3</t>
+          <t>-5,75; 8,34</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 12,59</t>
+          <t>-6,56; 9,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 12,09</t>
+          <t>-13,16; 4,2</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-6,64; 5,73</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-8,97; 3,13</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-7,64; 5,56</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>58,21%</t>
+          <t>-2,87%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>44,05%</t>
+          <t>-7,55%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>22,7%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>24,73%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>32,76%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>29,17%</t>
+          <t>-4,06%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-0,17%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-2,75%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>-1,45%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-16,7; 204,08</t>
+          <t>-14,67; 7,78</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-31,23; 185,26</t>
+          <t>-19,51; 5,4</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-18,75; 86,13</t>
+          <t>-8,04; 12,24</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-12,91; 92,77</t>
+          <t>-5,92; 9,47</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-8,01; 83,32</t>
+          <t>-6,78; 10,48</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-8,0; 82,97</t>
+          <t>-13,95; 4,73</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-6,99; 6,58</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-9,6; 3,5</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-8,23; 6,15</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>4,94</t>
+          <t>14,95</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>3,05</t>
+          <t>15,05</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>10,27</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>5,65</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>2,07</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>4,29</t>
+          <t>8,16</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>8,75</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>8,04</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>9,38</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 16,49</t>
+          <t>2,11; 28,82</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-8,36; 15,69</t>
+          <t>2,17; 29,03</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-12,37; 11,08</t>
+          <t>-3,87; 24,54</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 17,49</t>
+          <t>-14,56; 15,85</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 10,73</t>
+          <t>-18,09; 13,83</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 13,17</t>
+          <t>-5,78; 21,92</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-1,24; 18,48</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-2,13; 17,77</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-0,66; 19,88</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>30,6%</t>
+          <t>19,5%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>18,92%</t>
+          <t>19,63%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-4,0%</t>
+          <t>13,4%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>31,39%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>12,13%</t>
+          <t>-1,7%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>25,1%</t>
+          <t>9,64%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>10,91%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>10,03%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>11,7%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-32,83; 148,66</t>
+          <t>2,66; 44,66</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-44,04; 150,06</t>
+          <t>2,49; 43,78</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-53,02; 86,35</t>
+          <t>-4,44; 37,49</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-26,37; 138,01</t>
+          <t>-16,3; 20,95</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-27,2; 81,57</t>
+          <t>-19,85; 18,02</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-20,0; 107,28</t>
+          <t>-5,82; 30,17</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-1,33; 25,5</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-2,55; 24,16</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-0,76; 27,36</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2,23</t>
+          <t>16,84</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>5,5</t>
+          <t>5,57</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-1,58</t>
+          <t>17,49</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>11,54</t>
+          <t>14,04</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>11,73</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>9,65</t>
+          <t>15,98</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>14,54</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>8,87</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>16,12</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-11,29; 16,08</t>
+          <t>-0,42; 33,17</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 17,83</t>
+          <t>-16,48; 24,51</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-16,95; 12,43</t>
+          <t>2,87; 35,1</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-11,22; 52,11</t>
+          <t>-2,33; 33,51</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-11,01; 9,99</t>
+          <t>-6,97; 31,01</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 46,05</t>
+          <t>-0,7; 33,16</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>1,46; 27,14</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-6,22; 22,74</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>4,93; 27,59</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>18,34%</t>
+          <t>21,38%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>45,22%</t>
+          <t>7,07%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-7,77%</t>
+          <t>22,21%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>56,73%</t>
+          <t>18,79%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>15,7%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>57,3%</t>
+          <t>21,4%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>18,96%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>11,57%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>21,01%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-68,61; 263,1</t>
+          <t>0,55; 53,1</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-48,88; 255,5</t>
+          <t>-19,16; 34,98</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-59,08; 98,99</t>
+          <t>4,13; 55,26</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-53,56; 557,91</t>
+          <t>-2,53; 56,77</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-49,57; 83,56</t>
+          <t>-8,08; 51,88</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-25,43; 414,81</t>
+          <t>-1,25; 54,06</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>2,53; 41,36</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>-7,07; 33,87</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>5,83; 41,29</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>7,44</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>5,29</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>8,94</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>4,2</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>-1,48</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>2,68</t>
+          <t>-1,35</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>3,56</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>1,66</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>3,48</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-7,75; 6,21</t>
+          <t>0,37; 16,27</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 8,03</t>
+          <t>-1,61; 14,29</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 3,21</t>
+          <t>2,54; 17,51</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 13,1</t>
+          <t>-4,63; 5,02</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 3,29</t>
+          <t>-6,31; 3,24</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 7,6</t>
+          <t>-6,17; 3,69</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-0,42; 8,6</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-2,6; 6,41</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-0,53; 8,24</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-0,52%</t>
+          <t>9,21%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-4,7%</t>
+          <t>11,06%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>25,52%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-2,79%</t>
+          <t>-1,67%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>16,51%</t>
+          <t>-1,53%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>4,2%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>1,95%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>4,1%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-37,98; 50,46</t>
+          <t>0,55; 22,23</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-33,24; 63,72</t>
+          <t>-1,86; 19,4</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-29,33; 22,14</t>
+          <t>3,02; 23,42</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 84,13</t>
+          <t>-5,12; 5,77</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-23,2; 22,64</t>
+          <t>-7,0; 3,79</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-11,58; 51,93</t>
+          <t>-6,78; 4,26</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-0,49; 10,63</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-2,97; 7,91</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-0,6; 10,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
